--- a/Table/Table_xls/c称谓表.xlsx
+++ b/Table/Table_xls/c称谓表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,11 +25,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 -1代表没有
 有效时间是按秒计算</t>
         </r>
@@ -40,11 +39,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">user:
+          <t>user:
 没用</t>
         </r>
       </text>
@@ -54,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="326">
   <si>
     <t>称谓id</t>
   </si>
@@ -608,7 +606,7 @@
     <t>魔王女三级称谓</t>
   </si>
   <si>
-    <t>陈橙子测试</t>
+    <t>恭喜发财测试</t>
   </si>
   <si>
     <t>熊猫人</t>
@@ -887,21 +885,21 @@
     <t>参与老玩家召回活动领取</t>
   </si>
   <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>官职称谓</t>
+    <t>至尊梦幻@GM</t>
+  </si>
+  <si>
+    <t>特殊称号</t>
+  </si>
+  <si>
+    <t>特殊活动</t>
+  </si>
+  <si>
+    <t>黄金至尊</t>
   </si>
   <si>
     <t>由于你的出色表现，被给予该称谓</t>
   </si>
   <si>
-    <t>特殊活动</t>
-  </si>
-  <si>
-    <t>黄金至尊</t>
-  </si>
-  <si>
     <t>白金至尊</t>
   </si>
   <si>
@@ -956,9 +954,6 @@
     <t>至尊名人</t>
   </si>
   <si>
-    <t>地煞称谓</t>
-  </si>
-  <si>
     <t>武汉★加油</t>
   </si>
   <si>
@@ -974,9 +969,6 @@
     <t>三界第一高手</t>
   </si>
   <si>
-    <t>排行称谓</t>
-  </si>
-  <si>
     <t>◇◆大唐◆◇第一高手◆◇</t>
   </si>
   <si>
@@ -1004,10 +996,34 @@
     <t>◇◆月宫◆◇第一高手◆◇</t>
   </si>
   <si>
-    <t>名人堂.至尊称号</t>
+    <t>至尊梦幻@武道会季军</t>
+  </si>
+  <si>
+    <t>比武大会奖励称号</t>
+  </si>
+  <si>
+    <t>至尊梦幻@武道会冠军</t>
+  </si>
+  <si>
+    <t>至尊梦幻@赞助特殊玩家</t>
   </si>
   <si>
     <t>赞助玩家获得</t>
+  </si>
+  <si>
+    <t>至尊梦幻@名人堂玩家</t>
+  </si>
+  <si>
+    <t>天下第一帮@帮主</t>
+  </si>
+  <si>
+    <t>帮战特殊称号</t>
+  </si>
+  <si>
+    <t>帮战</t>
+  </si>
+  <si>
+    <t>天下第一帮@成员</t>
   </si>
   <si>
     <t>称谓等级</t>
@@ -1036,12 +1052,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1069,24 +1085,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -1094,27 +1098,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1140,16 +1123,26 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color indexed="54"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1159,9 +1152,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color indexed="53"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1175,30 +1210,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1208,6 +1221,27 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,37 +1260,6 @@
       <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1286,8 +1289,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="54"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1327,6 +1343,11 @@
     <font>
       <sz val="11"/>
       <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1376,55 +1397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,103 +1409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,7 +1445,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1568,25 +1553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,13 +1571,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="31"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1681,11 +1702,100 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1706,66 +1816,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="63"/>
       </left>
       <right style="thin">
@@ -1776,35 +1826,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,238 +1902,238 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2130,32 +2151,32 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -2191,6 +2212,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="61" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="92">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2236,9 +2258,9 @@
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="40"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="41" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="42" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="43" builtinId="34"/>
-    <cellStyle name="输出 2" xfId="44"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="45"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="43"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="44" builtinId="34"/>
+    <cellStyle name="输出 2" xfId="45"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="46" builtinId="35"/>
     <cellStyle name="强调文字颜色 3" xfId="47" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
@@ -2292,6 +2314,11 @@
       <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2618,30 +2645,29 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J156"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H50" sqref="H50"/>
+      <selection pane="bottomRight" activeCell="G123" sqref="G123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="4" max="5" width="19.2857142857143" customWidth="1"/>
+    <col min="4" max="5" width="19.287037037037" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="42.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="20.2857142857143" customWidth="1"/>
-    <col min="9" max="9" width="12.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="42.287037037037" customWidth="1"/>
+    <col min="8" max="8" width="20.287037037037" customWidth="1"/>
+    <col min="9" max="9" width="12.712962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:9">
@@ -4962,8 +4988,8 @@
       <c r="A89" s="12">
         <v>100</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>10</v>
+      <c r="B89" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C89" s="2">
         <v>597600</v>
@@ -4988,8 +5014,8 @@
       <c r="A90" s="12">
         <v>101</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>10</v>
+      <c r="B90" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C90" s="2">
         <v>597600</v>
@@ -5014,8 +5040,8 @@
       <c r="A91" s="12">
         <v>102</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>10</v>
+      <c r="B91" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C91" s="2">
         <v>597600</v>
@@ -5040,8 +5066,8 @@
       <c r="A92" s="12">
         <v>103</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>10</v>
+      <c r="B92" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C92" s="2">
         <v>597600</v>
@@ -5066,8 +5092,8 @@
       <c r="A93" s="12">
         <v>104</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>10</v>
+      <c r="B93" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C93" s="2">
         <v>597600</v>
@@ -5092,8 +5118,8 @@
       <c r="A94" s="12">
         <v>105</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>10</v>
+      <c r="B94" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C94" s="2">
         <v>597600</v>
@@ -5118,8 +5144,8 @@
       <c r="A95" s="12">
         <v>106</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>10</v>
+      <c r="B95" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C95" s="2">
         <v>597600</v>
@@ -5144,8 +5170,8 @@
       <c r="A96" s="12">
         <v>107</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>10</v>
+      <c r="B96" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C96" s="2">
         <v>597600</v>
@@ -5170,8 +5196,8 @@
       <c r="A97" s="12">
         <v>108</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>10</v>
+      <c r="B97" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C97" s="2">
         <v>597600</v>
@@ -5196,8 +5222,8 @@
       <c r="A98" s="12">
         <v>109</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>10</v>
+      <c r="B98" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C98" s="2">
         <v>597600</v>
@@ -5222,8 +5248,8 @@
       <c r="A99" s="12">
         <v>110</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>10</v>
+      <c r="B99" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C99" s="2">
         <v>597600</v>
@@ -5248,8 +5274,8 @@
       <c r="A100" s="12">
         <v>111</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>10</v>
+      <c r="B100" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C100" s="2">
         <v>597600</v>
@@ -5274,8 +5300,8 @@
       <c r="A101" s="12">
         <v>112</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>10</v>
+      <c r="B101" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C101" s="2">
         <v>597600</v>
@@ -5300,8 +5326,8 @@
       <c r="A102" s="12">
         <v>113</v>
       </c>
-      <c r="B102" s="2" t="s">
-        <v>10</v>
+      <c r="B102" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C102" s="2">
         <v>597600</v>
@@ -5326,8 +5352,8 @@
       <c r="A103" s="12">
         <v>114</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>10</v>
+      <c r="B103" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C103" s="2">
         <v>597600</v>
@@ -5482,7 +5508,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" ht="14.4" spans="1:9">
       <c r="A109" s="12">
         <v>120</v>
       </c>
@@ -5508,7 +5534,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" ht="14.4" spans="1:9">
       <c r="A110" s="12">
         <v>121</v>
       </c>
@@ -5534,7 +5560,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" ht="14.4" spans="1:9">
       <c r="A111" s="12">
         <v>122</v>
       </c>
@@ -5560,7 +5586,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="112" ht="14.25" spans="1:9">
+    <row r="112" ht="15.6" spans="1:9">
       <c r="A112" s="12">
         <v>123</v>
       </c>
@@ -5586,7 +5612,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="113" ht="14.25" spans="1:9">
+    <row r="113" ht="15.6" spans="1:9">
       <c r="A113" s="12">
         <v>124</v>
       </c>
@@ -5612,7 +5638,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="114" ht="14.25" spans="1:9">
+    <row r="114" ht="15.6" spans="1:9">
       <c r="A114" s="12">
         <v>125</v>
       </c>
@@ -5638,7 +5664,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="115" ht="14.25" spans="1:9">
+    <row r="115" ht="15.6" spans="1:9">
       <c r="A115" s="12">
         <v>126</v>
       </c>
@@ -5664,7 +5690,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="116" ht="14.25" spans="1:9">
+    <row r="116" ht="15.6" spans="1:9">
       <c r="A116" s="12">
         <v>127</v>
       </c>
@@ -5690,7 +5716,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="117" ht="14.25" spans="1:9">
+    <row r="117" ht="15.6" spans="1:9">
       <c r="A117" s="12">
         <v>128</v>
       </c>
@@ -5716,7 +5742,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" ht="13.5" spans="1:9">
+    <row r="118" ht="14.4" spans="1:9">
       <c r="A118" s="12">
         <v>129</v>
       </c>
@@ -5863,13 +5889,13 @@
         <v>273</v>
       </c>
       <c r="G123" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>237</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" s="3" customFormat="1" spans="1:9">
@@ -5883,19 +5909,19 @@
         <v>17</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E124" s="10" t="s">
         <v>273</v>
       </c>
       <c r="G124" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>237</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" s="3" customFormat="1" spans="1:9">
@@ -5915,13 +5941,13 @@
         <v>273</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>237</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" s="3" customFormat="1" spans="1:9">
@@ -5941,13 +5967,13 @@
         <v>273</v>
       </c>
       <c r="G126" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>237</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" s="3" customFormat="1" spans="1:9">
@@ -5967,13 +5993,13 @@
         <v>273</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>237</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" s="3" customFormat="1" spans="1:9">
@@ -5993,13 +6019,13 @@
         <v>273</v>
       </c>
       <c r="G128" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>237</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="129" s="3" customFormat="1" spans="1:9">
@@ -6019,13 +6045,13 @@
         <v>273</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>237</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" s="3" customFormat="1" spans="1:9">
@@ -6045,13 +6071,13 @@
         <v>273</v>
       </c>
       <c r="G130" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>237</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" s="3" customFormat="1" spans="1:9">
@@ -6071,13 +6097,13 @@
         <v>273</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" s="3" customFormat="1" spans="1:9">
@@ -6097,13 +6123,13 @@
         <v>273</v>
       </c>
       <c r="G132" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" s="3" customFormat="1" spans="1:9">
@@ -6123,13 +6149,13 @@
         <v>273</v>
       </c>
       <c r="G133" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" s="3" customFormat="1" spans="1:9">
@@ -6149,13 +6175,13 @@
         <v>273</v>
       </c>
       <c r="G134" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" s="3" customFormat="1" spans="1:9">
@@ -6175,13 +6201,13 @@
         <v>273</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" s="3" customFormat="1" spans="1:9">
@@ -6201,13 +6227,13 @@
         <v>273</v>
       </c>
       <c r="G136" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" s="3" customFormat="1" spans="1:9">
@@ -6227,13 +6253,13 @@
         <v>273</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H137" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" s="3" customFormat="1" spans="1:9">
@@ -6253,13 +6279,13 @@
         <v>273</v>
       </c>
       <c r="G138" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H138" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" s="3" customFormat="1" spans="1:9">
@@ -6279,13 +6305,13 @@
         <v>273</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H139" s="3" t="s">
         <v>284</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" s="3" customFormat="1" spans="1:9">
@@ -6305,13 +6331,13 @@
         <v>273</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H140" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" s="3" customFormat="1" spans="1:9">
@@ -6328,16 +6354,16 @@
         <v>294</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="H141" s="3" t="s">
         <v>237</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" s="3" customFormat="1" spans="1:9">
@@ -6351,19 +6377,19 @@
         <v>17</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="H142" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" s="3" customFormat="1" spans="1:9">
@@ -6377,19 +6403,19 @@
         <v>17</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G143" s="10" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="H143" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" s="3" customFormat="1" spans="1:9">
@@ -6403,19 +6429,19 @@
         <v>17</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" s="3" customFormat="1" spans="1:9">
@@ -6429,19 +6455,19 @@
         <v>17</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="G145" s="10" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="H145" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" s="3" customFormat="1" spans="1:9">
@@ -6455,19 +6481,19 @@
         <v>17</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>107</v>
+        <v>276</v>
       </c>
       <c r="H146" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" s="3" customFormat="1" spans="1:9">
@@ -6481,19 +6507,19 @@
         <v>604800</v>
       </c>
       <c r="D147" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E147" s="10" t="s">
         <v>273</v>
       </c>
       <c r="G147" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H147" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" s="3" customFormat="1" spans="1:9">
@@ -6507,19 +6533,19 @@
         <v>604800</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E148" s="10" t="s">
         <v>273</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H148" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" s="3" customFormat="1" spans="1:9">
@@ -6533,19 +6559,19 @@
         <v>604800</v>
       </c>
       <c r="D149" s="13" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E149" s="10" t="s">
         <v>273</v>
       </c>
       <c r="G149" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H149" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" s="3" customFormat="1" spans="1:9">
@@ -6559,19 +6585,19 @@
         <v>604800</v>
       </c>
       <c r="D150" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E150" s="10" t="s">
         <v>273</v>
       </c>
       <c r="G150" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H150" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" s="3" customFormat="1" spans="1:9">
@@ -6585,19 +6611,19 @@
         <v>604800</v>
       </c>
       <c r="D151" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E151" s="10" t="s">
         <v>273</v>
       </c>
       <c r="G151" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H151" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I151" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" s="3" customFormat="1" spans="1:9">
@@ -6611,19 +6637,19 @@
         <v>604800</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E152" s="10" t="s">
         <v>273</v>
       </c>
       <c r="G152" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H152" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" s="3" customFormat="1" spans="1:9">
@@ -6637,19 +6663,19 @@
         <v>604800</v>
       </c>
       <c r="D153" s="13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E153" s="10" t="s">
         <v>273</v>
       </c>
       <c r="G153" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H153" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="154" s="3" customFormat="1" spans="1:9">
@@ -6663,19 +6689,19 @@
         <v>604800</v>
       </c>
       <c r="D154" s="13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E154" s="10" t="s">
         <v>273</v>
       </c>
       <c r="G154" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H154" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" s="3" customFormat="1" spans="1:9">
@@ -6689,45 +6715,175 @@
         <v>604800</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E155" s="10" t="s">
         <v>273</v>
       </c>
       <c r="G155" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H155" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" s="3" customFormat="1" spans="1:9">
-      <c r="A156" s="8">
-        <v>171</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>10</v>
+      <c r="A156" s="19">
+        <v>167</v>
+      </c>
+      <c r="B156" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="C156" s="3">
         <v>604800</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E156" s="10" t="s">
         <v>273</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H156" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" s="3" customFormat="1" spans="1:9">
+      <c r="A157" s="19">
+        <v>168</v>
+      </c>
+      <c r="B157" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C157" s="3">
+        <v>604800</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E157" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G157" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I157" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="158" s="3" customFormat="1" spans="1:9">
+      <c r="A158" s="19">
+        <v>170</v>
+      </c>
+      <c r="B158" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C158" s="3">
+        <v>604800</v>
+      </c>
+      <c r="D158" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E158" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G158" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I158" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="159" s="3" customFormat="1" spans="1:9">
+      <c r="A159" s="8">
+        <v>171</v>
+      </c>
+      <c r="B159" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C159" s="3">
+        <v>604800</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E159" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G159" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I159" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="8">
+        <v>172</v>
+      </c>
+      <c r="B160" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2">
+        <v>597600</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I160" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="8">
+        <v>173</v>
+      </c>
+      <c r="B161" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C161" s="2">
+        <v>597600</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -6739,7 +6895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -6747,14 +6903,14 @@
       <selection activeCell="A1" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -6762,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6770,7 +6926,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -6778,7 +6934,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6786,7 +6942,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6794,7 +6950,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="2:2">
